--- a/Config/UIModeConfigData.xlsx
+++ b/Config/UIModeConfigData.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\VLabConfiguration\VLabEditor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64DAF3F-B171-4984-BEF3-B0DCD7B7F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>peng wang</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{89F4FAF0-E3F4-4B6F-B542-58814822622B}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -45,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -54,13 +41,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C822107-4261-4732-8077-17267DCFBD68}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -69,7 +55,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -78,13 +63,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{98530779-7D74-452D-95BC-3BC47F2A32D8}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -93,7 +77,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -102,13 +85,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC85B736-29A2-41B9-AC6E-3EFF69355363}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -117,7 +99,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -126,13 +107,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F07FFAC5-C7DD-4E2B-AFE7-2748C77340DF}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -141,7 +121,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -151,13 +130,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E3D47897-1106-4A8D-B633-82F4351EBA9A}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -166,7 +144,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -180,54 +157,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>parentID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ResNor</t>
+  </si>
+  <si>
+    <t>ResSelect</t>
+  </si>
+  <si>
+    <t>permissionIndex</t>
+  </si>
+  <si>
+    <t>dsadsadsa</t>
+  </si>
+  <si>
+    <t>dsadasdas</t>
+  </si>
+  <si>
+    <t>dsadsadsadsa</t>
+  </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResNor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permissionIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_physics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_subject_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conf_EquipmentsCategoryUI31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conf_EquipmentsCategoryUI38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iconwuli_nor</t>
@@ -252,59 +220,128 @@
   </si>
   <si>
     <t>iconkexue_sel</t>
-  </si>
-  <si>
-    <t>parentID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_subject_1</t>
-  </si>
-  <si>
-    <t>title_subject_2</t>
-  </si>
-  <si>
-    <t>title_subject_3</t>
-  </si>
-  <si>
-    <t>title_subject_5</t>
-  </si>
-  <si>
-    <t>title_subject_6</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsadsadsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsadasdas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsadsadsadsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -312,92 +349,22 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -406,70 +373,24 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -483,175 +404,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,25 +602,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,9 +654,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,221 +704,223 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{1E8FE964-2518-4E16-A4AB-C2BE0D881B81}"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{2866E8ED-804C-43EE-B08A-4B46FC563335}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="注释 2" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1007,7 +969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1042,7 +1004,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1216,42 +1178,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="55.21875" customWidth="1"/>
-    <col min="2" max="3" width="75.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.2222222222222" customWidth="1"/>
+    <col min="2" max="3" width="75.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1266,15 +1223,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1289,112 +1246,112 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" t="b">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" t="b">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1403,12 +1360,12 @@
         <v>232132</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1417,12 +1374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" t="b">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1431,12 +1388,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11" t="b">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1445,12 +1402,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12" t="b">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1459,118 +1416,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/UIModeConfigData.xlsx
+++ b/Config/UIModeConfigData.xlsx
@@ -248,6 +248,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -256,37 +293,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,32 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -340,30 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -377,13 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -404,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +628,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,11 +674,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,24 +686,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,148 +710,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>

--- a/Config/UIModeConfigData.xlsx
+++ b/Config/UIModeConfigData.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +180,9 @@
     <t>permissionIndex</t>
   </si>
   <si>
+    <t>aaa</t>
+  </si>
+  <si>
     <t>dsadsadsa</t>
   </si>
   <si>
@@ -198,28 +201,58 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum.CommonType</t>
+  </si>
+  <si>
     <t>iconwuli_nor</t>
   </si>
   <si>
     <t>iconwuli_sel</t>
   </si>
   <si>
+    <t>CommonType.CommonType_1</t>
+  </si>
+  <si>
     <t>iconhuaxue_nor</t>
   </si>
   <si>
     <t>iconhuaxue_sel</t>
   </si>
   <si>
+    <t>CommonType.CommonType_2</t>
+  </si>
+  <si>
     <t>iconshengwu_nor</t>
   </si>
   <si>
     <t>iconshengwu_sel</t>
   </si>
   <si>
+    <t>CommonType.CommonType_3</t>
+  </si>
+  <si>
     <t>iconkexue_nor</t>
   </si>
   <si>
     <t>iconkexue_sel</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_4</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_5</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_6</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_7</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_8</t>
+  </si>
+  <si>
+    <t>CommonType.CommonType_9</t>
   </si>
 </sst>
 </file>
@@ -227,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -248,6 +281,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -255,10 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,11 +348,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,69 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,13 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -404,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +628,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +662,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,7 +700,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,33 +709,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,15 +719,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,148 +743,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,13 +1217,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="55.2222222222222" customWidth="1"/>
     <col min="2" max="3" width="75.2222222222222" customWidth="1"/>
@@ -1198,9 +1231,10 @@
     <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="46.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,54 +1256,60 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>43213213</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>532131</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>321321</v>
       </c>
       <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>7321321312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1277,16 +1317,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1297,16 +1340,19 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1317,16 +1363,19 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1337,16 +1386,19 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1359,8 +1411,11 @@
       <c r="D8">
         <v>232132</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1373,8 +1428,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1387,8 +1445,11 @@
       <c r="D10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1401,8 +1462,11 @@
       <c r="D11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1414,6 +1478,9 @@
       </c>
       <c r="D12">
         <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">

--- a/Config/UIModeConfigData.xlsx
+++ b/Config/UIModeConfigData.xlsx
@@ -165,7 +165,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>parentID</t>
+    <t>#parentID</t>
   </si>
   <si>
     <t>id</t>
@@ -260,9 +260,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -283,28 +283,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,6 +326,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -334,40 +372,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <i/>
@@ -395,14 +403,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -437,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +628,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,21 +677,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,8 +717,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,133 +758,133 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
